--- a/spec/fixtures/reports/xlsx_report_2020-12-22.xlsx
+++ b/spec/fixtures/reports/xlsx_report_2020-12-22.xlsx
@@ -37,7 +37,7 @@
     <t>2020-12-21</t>
   </si>
   <si>
-    <t>2020-12-20</t>
+    <t>2020-12-15</t>
   </si>
 </sst>
 </file>
